--- a/crm/templates/crm/excel/invoice.xlsx
+++ b/crm/templates/crm/excel/invoice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\WWW\lc-crm-service\crm\templates\crm\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\justsmart\lc-crm-service\crm\templates\crm\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F45DCE8-E4F7-4CE6-B532-CC09149DF7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AC280D-2D57-4B08-830B-C8F834C32C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9C5B49A1-BAC6-4B25-822A-56695BF3CBC6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{9C5B49A1-BAC6-4B25-822A-56695BF3CBC6}"/>
   </bookViews>
   <sheets>
     <sheet name="送給業主之請款單" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -480,26 +480,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -570,56 +576,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>168728</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>172811</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5175651" cy="1160689"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="圖片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD34742-ABB3-4B5E-A69F-B6B5F114D67A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="168728" y="11602811"/>
-          <a:ext cx="5175651" cy="1160689"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:absoluteAnchor>
     <xdr:pos x="100" y="100"/>
     <xdr:ext cx="100" cy="100"/>
@@ -637,7 +593,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -673,7 +629,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1962,36 +1918,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490DAED0-6BDD-44E1-8C06-F78AFAEE9BE4}">
   <dimension ref="A2:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.90625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="1:3" ht="54.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="21"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="18.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -2002,169 +1958,169 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
     </row>
-    <row r="9" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
     </row>
-    <row r="10" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
     </row>
-    <row r="11" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
     </row>
-    <row r="12" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
     </row>
-    <row r="14" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+    <row r="18" spans="1:3" ht="20.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="11"/>
     </row>
-    <row r="19" spans="1:3" s="13" customFormat="1" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+    <row r="19" spans="1:3" s="13" customFormat="1" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="26"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="12">
         <f>SUM(C7:C17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="18.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B20" s="14"/>
       <c r="C20" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B21" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="19"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="19" t="s">
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B22" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="19"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="s">
+      <c r="C22" s="26"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B23" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="19"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="19" t="s">
+      <c r="C23" s="26"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B24" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="19"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="19" t="s">
+      <c r="C24" s="26"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B25" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="19"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="19" t="s">
+      <c r="C25" s="26"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B26" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="19"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="19" t="s">
+      <c r="C26" s="26"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B27" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="19"/>
-    </row>
-    <row r="28" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="C27" s="26"/>
+    </row>
+    <row r="28" spans="1:3" ht="23.5" x14ac:dyDescent="0.4">
+      <c r="A28" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="16"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B30" s="28"/>
       <c r="C30" s="16"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="17"/>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B31" s="19"/>
       <c r="C31" s="17"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="17"/>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B32" s="19"/>
       <c r="C32" s="17"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="17"/>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B33" s="19"/>
       <c r="C33" s="17"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
     </row>
-    <row r="37" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A29:C29"/>
